--- a/工作笔记.xlsx
+++ b/工作笔记.xlsx
@@ -3128,7 +3128,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
